--- a/converter/data/xlsx/15.5. A SMJENA.XLSX
+++ b/converter/data/xlsx/15.5. A SMJENA.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\RASPORED-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RASPORED-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4557C413-F0B9-4E99-9CC6-D130A9ECEB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="599"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -544,7 +545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4126,6 +4127,150 @@
     <xf numFmtId="0" fontId="34" fillId="12" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="105" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4138,159 +4283,15 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="105" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalno 2" xfId="2"/>
-    <cellStyle name="Obično 2" xfId="1"/>
-    <cellStyle name="Obično 3" xfId="3"/>
+    <cellStyle name="Normalno 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Obično 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Obično 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4339,7 +4340,7 @@
         <xdr:cNvPr id="3" name="Ravni poveznik sa strelicom 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4392,7 +4393,7 @@
         <xdr:cNvPr id="5" name="Ravni poveznik sa strelicom 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4445,7 +4446,7 @@
         <xdr:cNvPr id="7" name="Ravni poveznik sa strelicom 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4498,7 +4499,7 @@
         <xdr:cNvPr id="11" name="Ravni poveznik sa strelicom 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4551,7 +4552,7 @@
         <xdr:cNvPr id="13" name="Ravni poveznik sa strelicom 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4604,7 +4605,7 @@
         <xdr:cNvPr id="15" name="Ravni poveznik sa strelicom 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4657,7 +4658,7 @@
         <xdr:cNvPr id="17" name="Ravni poveznik sa strelicom 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4710,7 +4711,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4763,7 +4764,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4816,7 +4817,7 @@
         <xdr:cNvPr id="9" name="Ravni poveznik sa strelicom 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4869,7 +4870,7 @@
         <xdr:cNvPr id="16" name="Ravni poveznik sa strelicom 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4922,7 +4923,7 @@
         <xdr:cNvPr id="24" name="Ravni poveznik sa strelicom 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4975,7 +4976,7 @@
         <xdr:cNvPr id="33" name="Ravni poveznik sa strelicom 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5028,7 +5029,7 @@
         <xdr:cNvPr id="37" name="Ravni poveznik sa strelicom 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5081,7 +5082,7 @@
         <xdr:cNvPr id="39" name="Ravni poveznik sa strelicom 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5134,7 +5135,7 @@
         <xdr:cNvPr id="43" name="Ravni poveznik sa strelicom 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5187,7 +5188,7 @@
         <xdr:cNvPr id="51" name="Ravni poveznik sa strelicom 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5240,7 +5241,7 @@
         <xdr:cNvPr id="61" name="Ravni poveznik sa strelicom 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5293,7 +5294,7 @@
         <xdr:cNvPr id="34" name="Ravni poveznik sa strelicom 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5346,7 +5347,7 @@
         <xdr:cNvPr id="8" name="Ravni poveznik sa strelicom 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5399,7 +5400,7 @@
         <xdr:cNvPr id="28" name="Ravni poveznik sa strelicom 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5452,7 +5453,7 @@
         <xdr:cNvPr id="30" name="Ravni poveznik sa strelicom 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5505,7 +5506,7 @@
         <xdr:cNvPr id="10" name="Ravni poveznik sa strelicom 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255E128A-9D82-41CF-8D44-280C36884016}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255E128A-9D82-41CF-8D44-280C36884016}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5558,7 +5559,7 @@
         <xdr:cNvPr id="14" name="Ravni poveznik sa strelicom 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C17EB74-115E-46BD-B10D-59C992F4BAC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C17EB74-115E-46BD-B10D-59C992F4BAC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5611,7 +5612,7 @@
         <xdr:cNvPr id="21" name="Ravni poveznik sa strelicom 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EC7BDD-31F0-42B4-A27F-2B42810776ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EC7BDD-31F0-42B4-A27F-2B42810776ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5664,7 +5665,7 @@
         <xdr:cNvPr id="23" name="Ravni poveznik sa strelicom 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F793C4-2463-4E3F-992F-750498AB2E5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F793C4-2463-4E3F-992F-750498AB2E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5717,7 +5718,7 @@
         <xdr:cNvPr id="22" name="Ravni poveznik sa strelicom 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD3C46C-5B06-4A3A-8AFF-9258577221BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD3C46C-5B06-4A3A-8AFF-9258577221BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5770,7 +5771,7 @@
         <xdr:cNvPr id="12" name="Ravni poveznik sa strelicom 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85CB8C7-A8F2-4634-91A9-3D0B3795E9F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85CB8C7-A8F2-4634-91A9-3D0B3795E9F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5884,6 +5885,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5919,6 +5937,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6094,11 +6129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC37" sqref="AC37"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6141,47 +6176,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="576" t="s">
+      <c r="A1" s="593" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="576"/>
-      <c r="C1" s="576"/>
-      <c r="D1" s="576"/>
-      <c r="E1" s="576"/>
-      <c r="F1" s="576"/>
-      <c r="G1" s="576"/>
-      <c r="H1" s="576"/>
-      <c r="I1" s="576"/>
-      <c r="J1" s="576"/>
-      <c r="K1" s="576"/>
-      <c r="L1" s="576"/>
-      <c r="M1" s="576"/>
-      <c r="N1" s="576"/>
-      <c r="O1" s="576"/>
-      <c r="P1" s="576"/>
-      <c r="Q1" s="576"/>
-      <c r="R1" s="576"/>
-      <c r="S1" s="576"/>
-      <c r="T1" s="576"/>
-      <c r="U1" s="576"/>
-      <c r="V1" s="576"/>
-      <c r="W1" s="576"/>
-      <c r="X1" s="576"/>
-      <c r="Y1" s="576"/>
-      <c r="Z1" s="576"/>
-      <c r="AA1" s="576"/>
-      <c r="AB1" s="576"/>
-      <c r="AC1" s="576"/>
-      <c r="AD1" s="576"/>
-      <c r="AE1" s="576"/>
-      <c r="AF1" s="576"/>
-      <c r="AG1" s="576"/>
-      <c r="AH1" s="576"/>
-      <c r="AI1" s="576"/>
-      <c r="AJ1" s="576"/>
-      <c r="AK1" s="576"/>
-      <c r="AL1" s="576"/>
-      <c r="AM1" s="576"/>
+      <c r="B1" s="593"/>
+      <c r="C1" s="593"/>
+      <c r="D1" s="593"/>
+      <c r="E1" s="593"/>
+      <c r="F1" s="593"/>
+      <c r="G1" s="593"/>
+      <c r="H1" s="593"/>
+      <c r="I1" s="593"/>
+      <c r="J1" s="593"/>
+      <c r="K1" s="593"/>
+      <c r="L1" s="593"/>
+      <c r="M1" s="593"/>
+      <c r="N1" s="593"/>
+      <c r="O1" s="593"/>
+      <c r="P1" s="593"/>
+      <c r="Q1" s="593"/>
+      <c r="R1" s="593"/>
+      <c r="S1" s="593"/>
+      <c r="T1" s="593"/>
+      <c r="U1" s="593"/>
+      <c r="V1" s="593"/>
+      <c r="W1" s="593"/>
+      <c r="X1" s="593"/>
+      <c r="Y1" s="593"/>
+      <c r="Z1" s="593"/>
+      <c r="AA1" s="593"/>
+      <c r="AB1" s="593"/>
+      <c r="AC1" s="593"/>
+      <c r="AD1" s="593"/>
+      <c r="AE1" s="593"/>
+      <c r="AF1" s="593"/>
+      <c r="AG1" s="593"/>
+      <c r="AH1" s="593"/>
+      <c r="AI1" s="593"/>
+      <c r="AJ1" s="593"/>
+      <c r="AK1" s="593"/>
+      <c r="AL1" s="593"/>
+      <c r="AM1" s="593"/>
       <c r="AN1" s="499"/>
       <c r="AO1" s="1"/>
     </row>
@@ -6189,54 +6224,54 @@
       <c r="A2" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="577" t="s">
+      <c r="B2" s="594" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="578"/>
-      <c r="D2" s="578"/>
-      <c r="E2" s="578"/>
-      <c r="F2" s="578"/>
-      <c r="G2" s="578"/>
-      <c r="H2" s="579"/>
-      <c r="I2" s="580" t="s">
+      <c r="C2" s="595"/>
+      <c r="D2" s="595"/>
+      <c r="E2" s="595"/>
+      <c r="F2" s="595"/>
+      <c r="G2" s="595"/>
+      <c r="H2" s="596"/>
+      <c r="I2" s="597" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="578"/>
-      <c r="K2" s="578"/>
-      <c r="L2" s="578"/>
-      <c r="M2" s="578"/>
-      <c r="N2" s="578"/>
-      <c r="O2" s="581"/>
+      <c r="J2" s="595"/>
+      <c r="K2" s="595"/>
+      <c r="L2" s="595"/>
+      <c r="M2" s="595"/>
+      <c r="N2" s="595"/>
+      <c r="O2" s="598"/>
       <c r="P2" s="282"/>
-      <c r="Q2" s="582" t="s">
+      <c r="Q2" s="599" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="578"/>
-      <c r="S2" s="578"/>
-      <c r="T2" s="578"/>
-      <c r="U2" s="578"/>
-      <c r="V2" s="578"/>
-      <c r="W2" s="581"/>
+      <c r="R2" s="595"/>
+      <c r="S2" s="595"/>
+      <c r="T2" s="595"/>
+      <c r="U2" s="595"/>
+      <c r="V2" s="595"/>
+      <c r="W2" s="598"/>
       <c r="X2" s="282"/>
-      <c r="Y2" s="580" t="s">
+      <c r="Y2" s="597" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="578"/>
-      <c r="AA2" s="578"/>
-      <c r="AB2" s="578"/>
-      <c r="AC2" s="578"/>
-      <c r="AD2" s="578"/>
-      <c r="AE2" s="581"/>
+      <c r="Z2" s="595"/>
+      <c r="AA2" s="595"/>
+      <c r="AB2" s="595"/>
+      <c r="AC2" s="595"/>
+      <c r="AD2" s="595"/>
+      <c r="AE2" s="598"/>
       <c r="AF2" s="282"/>
-      <c r="AG2" s="577" t="s">
+      <c r="AG2" s="594" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="583"/>
-      <c r="AI2" s="583"/>
-      <c r="AJ2" s="583"/>
-      <c r="AK2" s="583"/>
-      <c r="AL2" s="583"/>
-      <c r="AM2" s="584"/>
+      <c r="AH2" s="600"/>
+      <c r="AI2" s="600"/>
+      <c r="AJ2" s="600"/>
+      <c r="AK2" s="600"/>
+      <c r="AL2" s="600"/>
+      <c r="AM2" s="601"/>
       <c r="AN2" s="502"/>
       <c r="AO2" s="1"/>
     </row>
@@ -6937,10 +6972,10 @@
       <c r="C12" s="494">
         <v>15</v>
       </c>
-      <c r="D12" s="566" t="s">
+      <c r="D12" s="602" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="567"/>
+      <c r="E12" s="603"/>
       <c r="F12" s="374" t="s">
         <v>36</v>
       </c>
@@ -7164,8 +7199,8 @@
       <c r="AA15" s="39"/>
       <c r="AB15" s="39"/>
       <c r="AC15" s="39"/>
-      <c r="AD15" s="591"/>
-      <c r="AE15" s="592"/>
+      <c r="AD15" s="569"/>
+      <c r="AE15" s="570"/>
       <c r="AF15" s="304"/>
       <c r="AG15" s="263"/>
       <c r="AH15" s="39"/>
@@ -7837,9 +7872,7 @@
       <c r="O26" s="43"/>
       <c r="P26" s="306"/>
       <c r="Q26" s="68"/>
-      <c r="R26" s="614" t="s">
-        <v>81</v>
-      </c>
+      <c r="R26" s="47"/>
       <c r="S26" s="47"/>
       <c r="T26" s="47"/>
       <c r="U26" s="47"/>
@@ -7906,7 +7939,9 @@
       <c r="O27" s="57"/>
       <c r="P27" s="294"/>
       <c r="Q27" s="72"/>
-      <c r="R27" s="57"/>
+      <c r="R27" s="562" t="s">
+        <v>81</v>
+      </c>
       <c r="S27" s="191"/>
       <c r="T27" s="213"/>
       <c r="U27" s="57"/>
@@ -8016,13 +8051,13 @@
       <c r="A29" s="393" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="601"/>
-      <c r="C29" s="602"/>
-      <c r="D29" s="602"/>
-      <c r="E29" s="602"/>
-      <c r="F29" s="602"/>
-      <c r="G29" s="602"/>
-      <c r="H29" s="603"/>
+      <c r="B29" s="579"/>
+      <c r="C29" s="580"/>
+      <c r="D29" s="580"/>
+      <c r="E29" s="580"/>
+      <c r="F29" s="580"/>
+      <c r="G29" s="580"/>
+      <c r="H29" s="581"/>
       <c r="I29" s="104"/>
       <c r="J29" s="57"/>
       <c r="K29" s="55"/>
@@ -8812,10 +8847,10 @@
       <c r="I42" s="48"/>
       <c r="J42" s="55"/>
       <c r="K42" s="57"/>
-      <c r="L42" s="570" t="s">
+      <c r="L42" s="606" t="s">
         <v>143</v>
       </c>
-      <c r="M42" s="571"/>
+      <c r="M42" s="607"/>
       <c r="N42" s="231" t="s">
         <v>76</v>
       </c>
@@ -8975,12 +9010,12 @@
       <c r="B44" s="54"/>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
-      <c r="E44" s="609" t="s">
+      <c r="E44" s="589" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="610"/>
-      <c r="G44" s="593"/>
-      <c r="H44" s="594"/>
+      <c r="F44" s="590"/>
+      <c r="G44" s="571"/>
+      <c r="H44" s="572"/>
       <c r="I44" s="48"/>
       <c r="J44" s="92"/>
       <c r="K44" s="43"/>
@@ -8988,21 +9023,21 @@
       <c r="M44" s="440" t="s">
         <v>84</v>
       </c>
-      <c r="N44" s="599" t="s">
+      <c r="N44" s="577" t="s">
         <v>95</v>
       </c>
-      <c r="O44" s="600"/>
+      <c r="O44" s="578"/>
       <c r="P44" s="306"/>
       <c r="Q44" s="263"/>
       <c r="R44" s="43"/>
       <c r="S44" s="43"/>
-      <c r="T44" s="595"/>
-      <c r="U44" s="596"/>
-      <c r="V44" s="597"/>
-      <c r="W44" s="598"/>
+      <c r="T44" s="573"/>
+      <c r="U44" s="574"/>
+      <c r="V44" s="575"/>
+      <c r="W44" s="576"/>
       <c r="X44" s="339"/>
-      <c r="Y44" s="595"/>
-      <c r="Z44" s="596"/>
+      <c r="Y44" s="573"/>
+      <c r="Z44" s="574"/>
       <c r="AA44" s="452"/>
       <c r="AB44" s="418" t="s">
         <v>89</v>
@@ -9223,10 +9258,10 @@
       </c>
       <c r="I48" s="169"/>
       <c r="J48" s="39"/>
-      <c r="K48" s="572" t="s">
+      <c r="K48" s="608" t="s">
         <v>145</v>
       </c>
-      <c r="L48" s="573"/>
+      <c r="L48" s="609"/>
       <c r="M48" s="550" t="s">
         <v>89</v>
       </c>
@@ -9250,19 +9285,19 @@
       <c r="AA48" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="AB48" s="604"/>
-      <c r="AC48" s="605"/>
+      <c r="AB48" s="582"/>
+      <c r="AC48" s="583"/>
       <c r="AD48" s="39"/>
       <c r="AE48" s="43"/>
       <c r="AF48" s="297"/>
-      <c r="AG48" s="585" t="s">
+      <c r="AG48" s="563" t="s">
         <v>109</v>
       </c>
-      <c r="AH48" s="586"/>
-      <c r="AI48" s="586"/>
-      <c r="AJ48" s="586"/>
-      <c r="AK48" s="586"/>
-      <c r="AL48" s="587"/>
+      <c r="AH48" s="564"/>
+      <c r="AI48" s="564"/>
+      <c r="AJ48" s="564"/>
+      <c r="AK48" s="564"/>
+      <c r="AL48" s="565"/>
       <c r="AM48" s="43"/>
       <c r="AN48" s="519"/>
       <c r="AO48" s="20"/>
@@ -9272,10 +9307,10 @@
       <c r="A49" s="511" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="606" t="s">
+      <c r="B49" s="584" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="607"/>
+      <c r="C49" s="585"/>
       <c r="D49" s="209" t="s">
         <v>36</v>
       </c>
@@ -9350,17 +9385,17 @@
       </c>
       <c r="B50" s="215"/>
       <c r="C50" s="211"/>
-      <c r="D50" s="611"/>
-      <c r="E50" s="612"/>
+      <c r="D50" s="591"/>
+      <c r="E50" s="592"/>
       <c r="F50" s="101"/>
-      <c r="G50" s="568"/>
-      <c r="H50" s="569"/>
+      <c r="G50" s="604"/>
+      <c r="H50" s="605"/>
       <c r="I50" s="233"/>
       <c r="J50" s="174"/>
-      <c r="K50" s="574" t="s">
+      <c r="K50" s="586" t="s">
         <v>144</v>
       </c>
-      <c r="L50" s="575"/>
+      <c r="L50" s="588"/>
       <c r="M50" s="498"/>
       <c r="N50" s="561" t="s">
         <v>82</v>
@@ -9370,11 +9405,11 @@
       <c r="Q50" s="76"/>
       <c r="R50" s="59"/>
       <c r="S50" s="498"/>
-      <c r="T50" s="574" t="s">
+      <c r="T50" s="586" t="s">
         <v>106</v>
       </c>
-      <c r="U50" s="608"/>
-      <c r="V50" s="575"/>
+      <c r="U50" s="587"/>
+      <c r="V50" s="588"/>
       <c r="W50" s="192"/>
       <c r="X50" s="343"/>
       <c r="Y50" s="207" t="s">
@@ -9399,14 +9434,14 @@
         <v>82</v>
       </c>
       <c r="AF50" s="353"/>
-      <c r="AG50" s="588" t="s">
+      <c r="AG50" s="566" t="s">
         <v>110</v>
       </c>
-      <c r="AH50" s="589"/>
-      <c r="AI50" s="589"/>
-      <c r="AJ50" s="589"/>
-      <c r="AK50" s="589"/>
-      <c r="AL50" s="590"/>
+      <c r="AH50" s="567"/>
+      <c r="AI50" s="567"/>
+      <c r="AJ50" s="567"/>
+      <c r="AK50" s="567"/>
+      <c r="AL50" s="568"/>
       <c r="AM50" s="59"/>
       <c r="AN50" s="518"/>
       <c r="AO50" s="24" t="s">
@@ -10871,54 +10906,54 @@
       <c r="A69" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="562" t="s">
+      <c r="B69" s="610" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="563"/>
-      <c r="D69" s="563"/>
-      <c r="E69" s="563"/>
-      <c r="F69" s="563"/>
-      <c r="G69" s="563"/>
-      <c r="H69" s="563"/>
-      <c r="I69" s="564" t="s">
+      <c r="C69" s="611"/>
+      <c r="D69" s="611"/>
+      <c r="E69" s="611"/>
+      <c r="F69" s="611"/>
+      <c r="G69" s="611"/>
+      <c r="H69" s="611"/>
+      <c r="I69" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="J69" s="563"/>
-      <c r="K69" s="563"/>
-      <c r="L69" s="563"/>
-      <c r="M69" s="563"/>
-      <c r="N69" s="563"/>
-      <c r="O69" s="563"/>
+      <c r="J69" s="611"/>
+      <c r="K69" s="611"/>
+      <c r="L69" s="611"/>
+      <c r="M69" s="611"/>
+      <c r="N69" s="611"/>
+      <c r="O69" s="611"/>
       <c r="P69" s="276"/>
-      <c r="Q69" s="563" t="s">
+      <c r="Q69" s="611" t="s">
         <v>69</v>
       </c>
-      <c r="R69" s="563"/>
-      <c r="S69" s="563"/>
-      <c r="T69" s="563"/>
-      <c r="U69" s="563"/>
-      <c r="V69" s="563"/>
-      <c r="W69" s="563"/>
+      <c r="R69" s="611"/>
+      <c r="S69" s="611"/>
+      <c r="T69" s="611"/>
+      <c r="U69" s="611"/>
+      <c r="V69" s="611"/>
+      <c r="W69" s="611"/>
       <c r="X69" s="276"/>
-      <c r="Y69" s="563" t="s">
+      <c r="Y69" s="611" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="563"/>
-      <c r="AA69" s="563"/>
-      <c r="AB69" s="563"/>
-      <c r="AC69" s="563"/>
-      <c r="AD69" s="563"/>
-      <c r="AE69" s="563"/>
+      <c r="Z69" s="611"/>
+      <c r="AA69" s="611"/>
+      <c r="AB69" s="611"/>
+      <c r="AC69" s="611"/>
+      <c r="AD69" s="611"/>
+      <c r="AE69" s="611"/>
       <c r="AF69" s="276"/>
-      <c r="AG69" s="564" t="s">
+      <c r="AG69" s="612" t="s">
         <v>73</v>
       </c>
-      <c r="AH69" s="563"/>
-      <c r="AI69" s="563"/>
-      <c r="AJ69" s="563"/>
-      <c r="AK69" s="563"/>
-      <c r="AL69" s="563"/>
-      <c r="AM69" s="565"/>
+      <c r="AH69" s="611"/>
+      <c r="AI69" s="611"/>
+      <c r="AJ69" s="611"/>
+      <c r="AK69" s="611"/>
+      <c r="AL69" s="611"/>
+      <c r="AM69" s="613"/>
       <c r="AN69" s="505"/>
       <c r="AO69" s="1"/>
       <c r="AP69" s="1"/>
@@ -10927,108 +10962,108 @@
       <c r="A70" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="562" t="s">
+      <c r="B70" s="610" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="563"/>
-      <c r="D70" s="563"/>
-      <c r="E70" s="563"/>
-      <c r="F70" s="563"/>
-      <c r="G70" s="563"/>
-      <c r="H70" s="563"/>
-      <c r="I70" s="564" t="s">
+      <c r="C70" s="611"/>
+      <c r="D70" s="611"/>
+      <c r="E70" s="611"/>
+      <c r="F70" s="611"/>
+      <c r="G70" s="611"/>
+      <c r="H70" s="611"/>
+      <c r="I70" s="612" t="s">
         <v>118</v>
       </c>
-      <c r="J70" s="563"/>
-      <c r="K70" s="563"/>
-      <c r="L70" s="563"/>
-      <c r="M70" s="563"/>
-      <c r="N70" s="563"/>
-      <c r="O70" s="563"/>
+      <c r="J70" s="611"/>
+      <c r="K70" s="611"/>
+      <c r="L70" s="611"/>
+      <c r="M70" s="611"/>
+      <c r="N70" s="611"/>
+      <c r="O70" s="611"/>
       <c r="P70" s="276"/>
-      <c r="Q70" s="563" t="s">
+      <c r="Q70" s="611" t="s">
         <v>15</v>
       </c>
-      <c r="R70" s="563"/>
-      <c r="S70" s="563"/>
-      <c r="T70" s="563"/>
-      <c r="U70" s="563"/>
-      <c r="V70" s="563"/>
-      <c r="W70" s="563"/>
+      <c r="R70" s="611"/>
+      <c r="S70" s="611"/>
+      <c r="T70" s="611"/>
+      <c r="U70" s="611"/>
+      <c r="V70" s="611"/>
+      <c r="W70" s="611"/>
       <c r="X70" s="276"/>
-      <c r="Y70" s="564" t="s">
+      <c r="Y70" s="612" t="s">
         <v>118</v>
       </c>
-      <c r="Z70" s="563"/>
-      <c r="AA70" s="563"/>
-      <c r="AB70" s="563"/>
-      <c r="AC70" s="563"/>
-      <c r="AD70" s="563"/>
-      <c r="AE70" s="563"/>
+      <c r="Z70" s="611"/>
+      <c r="AA70" s="611"/>
+      <c r="AB70" s="611"/>
+      <c r="AC70" s="611"/>
+      <c r="AD70" s="611"/>
+      <c r="AE70" s="611"/>
       <c r="AF70" s="276"/>
-      <c r="AG70" s="562" t="s">
+      <c r="AG70" s="610" t="s">
         <v>16</v>
       </c>
-      <c r="AH70" s="563"/>
-      <c r="AI70" s="563"/>
-      <c r="AJ70" s="563"/>
-      <c r="AK70" s="563"/>
-      <c r="AL70" s="563"/>
-      <c r="AM70" s="563"/>
+      <c r="AH70" s="611"/>
+      <c r="AI70" s="611"/>
+      <c r="AJ70" s="611"/>
+      <c r="AK70" s="611"/>
+      <c r="AL70" s="611"/>
+      <c r="AM70" s="611"/>
       <c r="AN70" s="505"/>
     </row>
     <row r="71" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="562" t="s">
+      <c r="B71" s="610" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="563"/>
-      <c r="D71" s="563"/>
-      <c r="E71" s="563"/>
-      <c r="F71" s="563"/>
-      <c r="G71" s="563"/>
-      <c r="H71" s="563"/>
-      <c r="I71" s="564" t="s">
+      <c r="C71" s="611"/>
+      <c r="D71" s="611"/>
+      <c r="E71" s="611"/>
+      <c r="F71" s="611"/>
+      <c r="G71" s="611"/>
+      <c r="H71" s="611"/>
+      <c r="I71" s="612" t="s">
         <v>71</v>
       </c>
-      <c r="J71" s="563"/>
-      <c r="K71" s="563"/>
-      <c r="L71" s="563"/>
-      <c r="M71" s="563"/>
-      <c r="N71" s="563"/>
-      <c r="O71" s="563"/>
+      <c r="J71" s="611"/>
+      <c r="K71" s="611"/>
+      <c r="L71" s="611"/>
+      <c r="M71" s="611"/>
+      <c r="N71" s="611"/>
+      <c r="O71" s="611"/>
       <c r="P71" s="276"/>
-      <c r="Q71" s="563" t="s">
+      <c r="Q71" s="611" t="s">
         <v>71</v>
       </c>
-      <c r="R71" s="563"/>
-      <c r="S71" s="563"/>
-      <c r="T71" s="563"/>
-      <c r="U71" s="563"/>
-      <c r="V71" s="563"/>
-      <c r="W71" s="563"/>
+      <c r="R71" s="611"/>
+      <c r="S71" s="611"/>
+      <c r="T71" s="611"/>
+      <c r="U71" s="611"/>
+      <c r="V71" s="611"/>
+      <c r="W71" s="611"/>
       <c r="X71" s="276"/>
-      <c r="Y71" s="563" t="s">
+      <c r="Y71" s="611" t="s">
         <v>138</v>
       </c>
-      <c r="Z71" s="563"/>
-      <c r="AA71" s="563"/>
-      <c r="AB71" s="563"/>
-      <c r="AC71" s="563"/>
-      <c r="AD71" s="563"/>
-      <c r="AE71" s="563"/>
+      <c r="Z71" s="611"/>
+      <c r="AA71" s="611"/>
+      <c r="AB71" s="611"/>
+      <c r="AC71" s="611"/>
+      <c r="AD71" s="611"/>
+      <c r="AE71" s="611"/>
       <c r="AF71" s="276"/>
-      <c r="AG71" s="564" t="s">
+      <c r="AG71" s="612" t="s">
         <v>137</v>
       </c>
-      <c r="AH71" s="563"/>
-      <c r="AI71" s="563"/>
-      <c r="AJ71" s="563"/>
-      <c r="AK71" s="563"/>
-      <c r="AL71" s="563"/>
-      <c r="AM71" s="565"/>
+      <c r="AH71" s="611"/>
+      <c r="AI71" s="611"/>
+      <c r="AJ71" s="611"/>
+      <c r="AK71" s="611"/>
+      <c r="AL71" s="611"/>
+      <c r="AM71" s="613"/>
       <c r="AN71" s="505"/>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
@@ -11330,6 +11365,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="I71:O71"/>
+    <mergeCell ref="Q71:W71"/>
+    <mergeCell ref="Y71:AE71"/>
+    <mergeCell ref="AG71:AM71"/>
+    <mergeCell ref="AG69:AM69"/>
+    <mergeCell ref="Y69:AE69"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="I69:O69"/>
+    <mergeCell ref="Q69:W69"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="Q70:W70"/>
+    <mergeCell ref="Y70:AE70"/>
+    <mergeCell ref="AG70:AM70"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AM2"/>
     <mergeCell ref="AG48:AL48"/>
     <mergeCell ref="AG50:AL50"/>
     <mergeCell ref="AD15:AE15"/>
@@ -11344,32 +11405,6 @@
     <mergeCell ref="T50:V50"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AG2:AM2"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="Q70:W70"/>
-    <mergeCell ref="Y70:AE70"/>
-    <mergeCell ref="AG70:AM70"/>
-    <mergeCell ref="AG69:AM69"/>
-    <mergeCell ref="Y69:AE69"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="I69:O69"/>
-    <mergeCell ref="Q69:W69"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="I71:O71"/>
-    <mergeCell ref="Q71:W71"/>
-    <mergeCell ref="Y71:AE71"/>
-    <mergeCell ref="AG71:AM71"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11379,7 +11414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11394,11 +11429,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="613" t="s">
+      <c r="B1" s="614" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="613"/>
-      <c r="D1" s="613"/>
+      <c r="C1" s="614"/>
+      <c r="D1" s="614"/>
     </row>
     <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="260"/>
